--- a/artfynd/A 47955-2022.xlsx
+++ b/artfynd/A 47955-2022.xlsx
@@ -956,10 +956,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104376475</v>
+        <v>104377204</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -972,21 +972,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>504510.7900249459</v>
+        <v>504685.5705295613</v>
       </c>
       <c r="R4" t="n">
-        <v>7189375.956264338</v>
+        <v>7189384.314071692</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Stump # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104377204</v>
+        <v>104377243</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1110,28 +1110,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Borgafjäll , Ås lm</t>
+          <t>Borgafjäll, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1232,10 +1232,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104377243</v>
+        <v>104376721</v>
       </c>
       <c r="B6" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1248,35 +1248,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Borgafjäll, Ås lm</t>
+          <t>Borgafjäll , Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>504685.5705295613</v>
+        <v>504737.1120364519</v>
       </c>
       <c r="R6" t="n">
-        <v>7189384.314071692</v>
+        <v>7189412.072121724</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1370,10 +1370,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104376721</v>
+        <v>104377759</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1386,21 +1386,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>504737.1120364519</v>
+        <v>504760.6257336958</v>
       </c>
       <c r="R7" t="n">
-        <v>7189412.072121724</v>
+        <v>7189370.380448543</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1508,10 +1508,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104377759</v>
+        <v>104377342</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>89388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1524,35 +1524,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Borgafjäll , Ås lm</t>
+          <t>Borgafjäll, Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>504760.6257336958</v>
+        <v>504643.3467321651</v>
       </c>
       <c r="R8" t="n">
-        <v>7189370.380448543</v>
+        <v>7189395.745242817</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1594,7 +1594,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Gammalt exemplar men typisk röta</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1646,10 +1651,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104377342</v>
+        <v>104376500</v>
       </c>
       <c r="B9" t="n">
-        <v>89388</v>
+        <v>89410</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1662,35 +1667,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Borgafjäll, Ås lm</t>
+          <t>Borgafjäll , Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>504643.3467321651</v>
+        <v>504676.9459576567</v>
       </c>
       <c r="R9" t="n">
-        <v>7189395.745242817</v>
+        <v>7189447.319177523</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1722,7 +1727,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1732,12 +1737,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:20</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Gammalt exemplar men typisk röta</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1789,10 +1789,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104376500</v>
+        <v>104377588</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>89388</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1805,21 +1805,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504676.9459576567</v>
+        <v>504720.1662858728</v>
       </c>
       <c r="R10" t="n">
-        <v>7189447.319177523</v>
+        <v>7189343.916436208</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1875,7 +1875,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Gamla exemplar men typisk röta</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1904,12 +1909,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1927,10 +1932,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104377588</v>
+        <v>104376475</v>
       </c>
       <c r="B11" t="n">
-        <v>89388</v>
+        <v>89410</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1943,21 +1948,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1968,10 +1973,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504720.1662858728</v>
+        <v>504510.7900249459</v>
       </c>
       <c r="R11" t="n">
-        <v>7189343.916436208</v>
+        <v>7189375.956264338</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -2003,7 +2008,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2013,12 +2018,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Gamla exemplar men typisk röta</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 47955-2022.xlsx
+++ b/artfynd/A 47955-2022.xlsx
@@ -956,10 +956,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104377204</v>
+        <v>104376475</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -972,21 +972,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>504685.5705295613</v>
+        <v>504510.7900249459</v>
       </c>
       <c r="R4" t="n">
-        <v>7189384.314071692</v>
+        <v>7189375.956264338</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>13:13</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>Liggande död trädstam, markontakt</t>
+          <t>Stubbe</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Horizontal, dead with ground contact # Picea abies</t>
+          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104377243</v>
+        <v>104377204</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1110,28 +1110,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Borgafjäll, Ås lm</t>
+          <t>Borgafjäll , Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:24</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1232,10 +1232,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104376721</v>
+        <v>104377243</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1248,35 +1248,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Borgafjäll , Ås lm</t>
+          <t>Borgafjäll, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>504737.1120364519</v>
+        <v>504685.5705295613</v>
       </c>
       <c r="R6" t="n">
-        <v>7189412.072121724</v>
+        <v>7189384.314071692</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>12:24</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1370,10 +1370,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104377759</v>
+        <v>104376721</v>
       </c>
       <c r="B7" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1386,21 +1386,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>504760.6257336958</v>
+        <v>504737.1120364519</v>
       </c>
       <c r="R7" t="n">
-        <v>7189370.380448543</v>
+        <v>7189412.072121724</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:03</t>
+          <t>12:36</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1508,10 +1508,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104377342</v>
+        <v>104377759</v>
       </c>
       <c r="B8" t="n">
-        <v>89388</v>
+        <v>89410</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1524,35 +1524,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Borgafjäll, Ås lm</t>
+          <t>Borgafjäll , Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>504643.3467321651</v>
+        <v>504760.6257336958</v>
       </c>
       <c r="R8" t="n">
-        <v>7189395.745242817</v>
+        <v>7189370.380448543</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1594,12 +1594,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:20</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Gammalt exemplar men typisk röta</t>
+          <t>12:03</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1651,10 +1646,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104376500</v>
+        <v>104377342</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>89388</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1667,35 +1662,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Borgafjäll , Ås lm</t>
+          <t>Borgafjäll, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>504676.9459576567</v>
+        <v>504643.3467321651</v>
       </c>
       <c r="R9" t="n">
-        <v>7189447.319177523</v>
+        <v>7189395.745242817</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1727,7 +1722,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1737,7 +1732,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Gammalt exemplar men typisk röta</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1789,10 +1789,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104377588</v>
+        <v>104376500</v>
       </c>
       <c r="B10" t="n">
-        <v>89388</v>
+        <v>89410</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1805,21 +1805,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504720.1662858728</v>
+        <v>504676.9459576567</v>
       </c>
       <c r="R10" t="n">
-        <v>7189343.916436208</v>
+        <v>7189447.319177523</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1875,12 +1875,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:08</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Gamla exemplar men typisk röta</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1909,12 +1904,12 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Stubbe</t>
+          <t>Liggande död trädstam, markontakt</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Stump # Picea abies</t>
+          <t>Horizontal, dead with ground contact # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1932,10 +1927,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104376475</v>
+        <v>104377588</v>
       </c>
       <c r="B11" t="n">
-        <v>89410</v>
+        <v>89388</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1948,21 +1943,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1973,10 +1968,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504510.7900249459</v>
+        <v>504720.1662858728</v>
       </c>
       <c r="R11" t="n">
-        <v>7189375.956264338</v>
+        <v>7189343.916436208</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -2008,7 +2003,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>12:08</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2018,7 +2013,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:13</t>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Gamla exemplar men typisk röta</t>
         </is>
       </c>
       <c r="AD11" t="b">
